--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -593,10 +605,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -640,28 +652,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -686,28 +698,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1027,10 +1039,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1074,28 +1086,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1120,28 +1132,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1374,10 +1386,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1421,28 +1433,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1467,28 +1479,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1779,10 +1791,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1826,28 +1838,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1872,28 +1884,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2213,10 +2225,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2260,28 +2272,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2306,28 +2318,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2531,10 +2543,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2578,28 +2590,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="2">
+      <c r="A85" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="2">
+      <c r="C85" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="2">
+      <c r="D85" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="2">
+      <c r="E85" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="2">
+      <c r="F85" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="2">
+      <c r="G85" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="2">
+      <c r="H85" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2624,28 +2636,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="2">
+      <c r="C87" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="2">
+      <c r="D87" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="2">
+      <c r="I87" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2907,10 +2919,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2954,28 +2966,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3000,28 +3012,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3283,10 +3295,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="J109" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3330,28 +3342,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
+      <c r="C111" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="2">
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3376,28 +3388,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3659,10 +3671,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="K122" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3706,28 +3718,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3752,28 +3764,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3977,10 +3989,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J133" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4024,28 +4036,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4070,28 +4082,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4324,10 +4336,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
+      <c r="J145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4371,28 +4383,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4417,28 +4429,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4642,10 +4654,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4689,28 +4701,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="2">
+      <c r="A158" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4735,28 +4747,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="2">
+      <c r="C160" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="2">
+      <c r="D160" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="2">
+      <c r="I160" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4844,10 +4856,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
+      <c r="J163" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K163" s="2" t="s">
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4891,28 +4903,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
+      <c r="C165" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D165" t="s" s="2">
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4937,28 +4949,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5075,10 +5087,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
+      <c r="J171" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
+      <c r="C3" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="4">
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -605,10 +653,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -652,28 +700,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="4">
+      <c r="C18" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="4">
+      <c r="D18" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -698,28 +746,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="4">
+      <c r="I20" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1039,10 +1087,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1086,28 +1134,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="4">
+      <c r="A33" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="4">
+      <c r="B33" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="4">
+      <c r="C33" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="4">
+      <c r="D33" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="4">
+      <c r="E33" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="4">
+      <c r="F33" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="4">
+      <c r="G33" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="4">
+      <c r="H33" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1132,28 +1180,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="4">
+      <c r="B35" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="4">
+      <c r="C35" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="4">
+      <c r="D35" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="4">
+      <c r="E35" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="4">
+      <c r="F35" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="4">
+      <c r="G35" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="4">
+      <c r="H35" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="4">
+      <c r="I35" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1386,10 +1434,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="J43" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1433,28 +1481,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="4">
+      <c r="A45" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="4">
+      <c r="B45" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="4">
+      <c r="C45" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="4">
+      <c r="D45" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="4">
+      <c r="E45" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="4">
+      <c r="F45" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="4">
+      <c r="G45" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="4">
+      <c r="H45" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1479,28 +1527,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="4">
+      <c r="C47" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="4">
+      <c r="D47" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="4">
+      <c r="E47" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="4">
+      <c r="F47" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="4">
+      <c r="G47" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="4">
+      <c r="H47" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="4">
+      <c r="I47" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1791,10 +1839,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="4" t="s">
+      <c r="J57" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="K57" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1838,28 +1886,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="4">
+      <c r="A59" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="4">
+      <c r="B59" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="4">
+      <c r="C59" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D59" t="s" s="4">
+      <c r="D59" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="4">
+      <c r="E59" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="4">
+      <c r="F59" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="4">
+      <c r="G59" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="4">
+      <c r="H59" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1884,28 +1932,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="4">
+      <c r="I61" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2225,10 +2273,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="4" t="s">
+      <c r="J72" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="4" t="s">
+      <c r="K72" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2272,28 +2320,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="4">
+      <c r="A74" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="4">
+      <c r="B74" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="4">
+      <c r="C74" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="4">
+      <c r="D74" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="4">
+      <c r="E74" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="4">
+      <c r="F74" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="4">
+      <c r="G74" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="4">
+      <c r="H74" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2318,28 +2366,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="4">
+      <c r="B76" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="4">
+      <c r="C76" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="4">
+      <c r="D76" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="4">
+      <c r="E76" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="4">
+      <c r="F76" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="4">
+      <c r="G76" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="4">
+      <c r="H76" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="4">
+      <c r="I76" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2543,10 +2591,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="4" t="s">
+      <c r="J83" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="K83" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2590,28 +2638,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="4">
+      <c r="A85" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="4">
+      <c r="B85" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C85" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="4">
+      <c r="D85" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="4">
+      <c r="E85" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="4">
+      <c r="F85" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="4">
+      <c r="G85" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="4">
+      <c r="H85" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2636,28 +2684,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="4">
+      <c r="B87" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="4">
+      <c r="C87" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="4">
+      <c r="D87" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="4">
+      <c r="E87" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="4">
+      <c r="F87" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="4">
+      <c r="G87" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="4">
+      <c r="H87" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="4">
+      <c r="I87" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2919,10 +2967,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="4" t="s">
+      <c r="J96" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="4" t="s">
+      <c r="K96" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2966,28 +3014,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="4">
+      <c r="A98" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3012,28 +3060,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="4">
+      <c r="B100" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="4">
+      <c r="C100" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="4">
+      <c r="D100" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="4">
+      <c r="E100" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="4">
+      <c r="F100" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="4">
+      <c r="G100" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="4">
+      <c r="H100" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="4">
+      <c r="I100" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3295,10 +3343,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="4" t="s">
+      <c r="J109" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="4" t="s">
+      <c r="K109" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3342,28 +3390,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="4">
+      <c r="A111" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="4">
+      <c r="B111" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="4">
+      <c r="C111" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="4">
+      <c r="D111" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="4">
+      <c r="E111" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="4">
+      <c r="F111" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="4">
+      <c r="G111" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="4">
+      <c r="H111" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3388,28 +3436,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="4">
+      <c r="B113" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="4">
+      <c r="C113" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="4">
+      <c r="D113" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="4">
+      <c r="E113" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="4">
+      <c r="F113" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="4">
+      <c r="G113" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="4">
+      <c r="H113" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="4">
+      <c r="I113" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3671,10 +3719,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="4" t="s">
+      <c r="J122" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="4" t="s">
+      <c r="K122" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3718,28 +3766,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="4">
+      <c r="A124" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="4">
+      <c r="B124" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="4">
+      <c r="C124" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="4">
+      <c r="D124" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="4">
+      <c r="E124" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="4">
+      <c r="F124" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="4">
+      <c r="G124" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="4">
+      <c r="H124" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3764,28 +3812,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="4">
+      <c r="C126" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="4">
+      <c r="D126" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="4">
+      <c r="I126" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3989,10 +4037,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="4" t="s">
+      <c r="J133" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="4" t="s">
+      <c r="K133" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4036,28 +4084,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="4">
+      <c r="A135" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="4">
+      <c r="C135" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="4">
+      <c r="D135" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4082,28 +4130,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="4">
+      <c r="B137" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="4">
+      <c r="C137" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="4">
+      <c r="D137" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="4">
+      <c r="E137" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="4">
+      <c r="F137" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="4">
+      <c r="G137" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="4">
+      <c r="H137" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="4">
+      <c r="I137" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4336,10 +4384,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="4" t="s">
+      <c r="J145" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="4" t="s">
+      <c r="K145" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4383,28 +4431,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="4">
+      <c r="A147" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="4">
+      <c r="B147" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="4">
+      <c r="C147" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="4">
+      <c r="D147" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="4">
+      <c r="E147" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="4">
+      <c r="F147" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="4">
+      <c r="G147" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="4">
+      <c r="H147" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4429,28 +4477,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="4">
+      <c r="B149" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="4">
+      <c r="C149" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="4">
+      <c r="D149" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="4">
+      <c r="E149" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="4">
+      <c r="F149" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="4">
+      <c r="G149" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="4">
+      <c r="H149" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="4">
+      <c r="I149" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4654,10 +4702,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="4" t="s">
+      <c r="J156" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="4" t="s">
+      <c r="K156" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4701,28 +4749,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="4">
+      <c r="A158" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="4">
+      <c r="B158" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="4">
+      <c r="C158" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="4">
+      <c r="D158" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="4">
+      <c r="E158" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="4">
+      <c r="F158" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="4">
+      <c r="G158" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="4">
+      <c r="H158" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4747,28 +4795,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="4">
+      <c r="C160" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="4">
+      <c r="D160" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="4">
+      <c r="I160" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4856,10 +4904,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="4" t="s">
+      <c r="J163" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K163" s="4" t="s">
+      <c r="K163" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4903,28 +4951,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="4">
+      <c r="A165" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="4">
+      <c r="B165" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="4">
+      <c r="C165" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="D165" t="s" s="4">
+      <c r="D165" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="4">
+      <c r="E165" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="4">
+      <c r="F165" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="4">
+      <c r="G165" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="4">
+      <c r="H165" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4949,28 +4997,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="4">
+      <c r="B167" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="4">
+      <c r="C167" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="4">
+      <c r="D167" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="4">
+      <c r="E167" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="4">
+      <c r="F167" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="4">
+      <c r="G167" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="4">
+      <c r="H167" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="4">
+      <c r="I167" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5087,10 +5135,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="4" t="s">
+      <c r="J171" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="4" t="s">
+      <c r="K171" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c108_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3216" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4020" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
+      <c r="C3" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -653,10 +671,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="K16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -700,28 +718,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="D18" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -746,28 +764,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="12">
+      <c r="I20" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1087,10 +1105,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1134,28 +1152,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="12">
+      <c r="A33" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="12">
+      <c r="B33" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="12">
+      <c r="C33" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="12">
+      <c r="D33" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E33" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="12">
+      <c r="F33" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="12">
+      <c r="G33" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="12">
+      <c r="H33" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1180,28 +1198,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="12">
+      <c r="B35" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="12">
+      <c r="C35" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D35" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="12">
+      <c r="F35" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="12">
+      <c r="G35" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="12">
+      <c r="H35" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="12">
+      <c r="I35" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1434,10 +1452,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="12" t="s">
+      <c r="J43" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="12" t="s">
+      <c r="K43" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1481,28 +1499,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="12">
+      <c r="A45" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="12">
+      <c r="B45" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="12">
+      <c r="C45" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="12">
+      <c r="D45" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="12">
+      <c r="E45" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="12">
+      <c r="F45" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="12">
+      <c r="G45" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="12">
+      <c r="H45" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1527,28 +1545,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="12">
+      <c r="B47" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="12">
+      <c r="C47" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="12">
+      <c r="D47" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="12">
+      <c r="E47" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="12">
+      <c r="F47" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="12">
+      <c r="G47" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="12">
+      <c r="H47" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="12">
+      <c r="I47" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1839,10 +1857,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="12" t="s">
+      <c r="J57" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K57" s="12" t="s">
+      <c r="K57" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1886,28 +1904,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="12">
+      <c r="A59" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="12">
+      <c r="B59" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="12">
+      <c r="C59" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D59" t="s" s="12">
+      <c r="D59" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="12">
+      <c r="E59" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="12">
+      <c r="F59" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="12">
+      <c r="G59" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="12">
+      <c r="H59" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1932,28 +1950,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="12">
+      <c r="I61" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2273,10 +2291,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="12" t="s">
+      <c r="J72" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="12" t="s">
+      <c r="K72" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2320,28 +2338,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="12">
+      <c r="A74" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="12">
+      <c r="B74" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="12">
+      <c r="C74" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="12">
+      <c r="D74" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="12">
+      <c r="E74" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="12">
+      <c r="F74" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="12">
+      <c r="G74" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="12">
+      <c r="H74" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2366,28 +2384,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="12">
+      <c r="B76" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="12">
+      <c r="C76" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="12">
+      <c r="D76" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="12">
+      <c r="E76" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="12">
+      <c r="F76" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="12">
+      <c r="G76" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="12">
+      <c r="H76" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="12">
+      <c r="I76" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2591,10 +2609,10 @@
       <c r="I83">
         <f>((C83-C82)^2+(D83- D82)^2)^.5</f>
       </c>
-      <c r="J83" s="12" t="s">
+      <c r="J83" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K83" s="12" t="s">
+      <c r="K83" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L83" t="n">
@@ -2638,28 +2656,28 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="12">
+      <c r="A85" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B85" t="s" s="12">
+      <c r="B85" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C85" t="s" s="12">
+      <c r="C85" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D85" t="s" s="12">
+      <c r="D85" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E85" t="s" s="12">
+      <c r="E85" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F85" t="s" s="12">
+      <c r="F85" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G85" t="s" s="12">
+      <c r="G85" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H85" t="s" s="12">
+      <c r="H85" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2684,28 +2702,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="B87" t="s" s="12">
+      <c r="B87" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C87" t="s" s="12">
+      <c r="C87" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D87" t="s" s="12">
+      <c r="D87" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E87" t="s" s="12">
+      <c r="E87" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F87" t="s" s="12">
+      <c r="F87" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G87" t="s" s="12">
+      <c r="G87" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H87" t="s" s="12">
+      <c r="H87" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I87" t="s" s="12">
+      <c r="I87" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2967,10 +2985,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="12" t="s">
+      <c r="J96" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K96" s="12" t="s">
+      <c r="K96" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -3014,28 +3032,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="12">
+      <c r="A98" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3060,28 +3078,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="12">
+      <c r="B100" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="12">
+      <c r="C100" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="12">
+      <c r="D100" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="12">
+      <c r="E100" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="12">
+      <c r="F100" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="12">
+      <c r="G100" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="12">
+      <c r="H100" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="12">
+      <c r="I100" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3343,10 +3361,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="12" t="s">
+      <c r="J109" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="12" t="s">
+      <c r="K109" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3390,28 +3408,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="12">
+      <c r="A111" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="12">
+      <c r="B111" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="12">
+      <c r="C111" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="12">
+      <c r="D111" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="12">
+      <c r="E111" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="12">
+      <c r="F111" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="12">
+      <c r="G111" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="12">
+      <c r="H111" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3436,28 +3454,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="12">
+      <c r="B113" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="12">
+      <c r="C113" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="12">
+      <c r="D113" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="12">
+      <c r="E113" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="12">
+      <c r="F113" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="12">
+      <c r="G113" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="12">
+      <c r="H113" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="12">
+      <c r="I113" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3719,10 +3737,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="12" t="s">
+      <c r="J122" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K122" s="12" t="s">
+      <c r="K122" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3766,28 +3784,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="12">
+      <c r="A124" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="12">
+      <c r="B124" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="12">
+      <c r="C124" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D124" t="s" s="12">
+      <c r="D124" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="12">
+      <c r="E124" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="12">
+      <c r="F124" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="12">
+      <c r="G124" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="12">
+      <c r="H124" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3812,28 +3830,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="12">
+      <c r="C126" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="12">
+      <c r="D126" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="12">
+      <c r="I126" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4037,10 +4055,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="12" t="s">
+      <c r="J133" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K133" s="12" t="s">
+      <c r="K133" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4084,28 +4102,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="12">
+      <c r="A135" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="12">
+      <c r="C135" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D135" t="s" s="12">
+      <c r="D135" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4130,28 +4148,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="12">
+      <c r="B137" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="12">
+      <c r="C137" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="12">
+      <c r="D137" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="12">
+      <c r="E137" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="12">
+      <c r="F137" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="12">
+      <c r="G137" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="12">
+      <c r="H137" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="12">
+      <c r="I137" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4384,10 +4402,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="12" t="s">
+      <c r="J145" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="12" t="s">
+      <c r="K145" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4431,28 +4449,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="12">
+      <c r="A147" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="12">
+      <c r="B147" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="12">
+      <c r="C147" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="12">
+      <c r="D147" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="12">
+      <c r="E147" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="12">
+      <c r="F147" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="12">
+      <c r="G147" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="12">
+      <c r="H147" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4477,28 +4495,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="12">
+      <c r="B149" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="12">
+      <c r="C149" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="12">
+      <c r="D149" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="12">
+      <c r="E149" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="12">
+      <c r="F149" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="12">
+      <c r="G149" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="12">
+      <c r="H149" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="12">
+      <c r="I149" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4702,10 +4720,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="12" t="s">
+      <c r="J156" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K156" s="12" t="s">
+      <c r="K156" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4749,28 +4767,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="12">
+      <c r="A158" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="12">
+      <c r="B158" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="12">
+      <c r="C158" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D158" t="s" s="12">
+      <c r="D158" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="12">
+      <c r="E158" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="12">
+      <c r="F158" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="12">
+      <c r="G158" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="12">
+      <c r="H158" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4795,28 +4813,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="12">
+      <c r="C160" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="12">
+      <c r="D160" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="12">
+      <c r="I160" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4904,10 +4922,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="12" t="s">
+      <c r="J163" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K163" s="12" t="s">
+      <c r="K163" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4951,28 +4969,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="12">
+      <c r="A165" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="12">
+      <c r="B165" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="12">
+      <c r="C165" t="s" s="15">
         <v>11</v>
       </c>
-      <c r="D165" t="s" s="12">
+      <c r="D165" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="12">
+      <c r="E165" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="12">
+      <c r="F165" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="12">
+      <c r="G165" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="12">
+      <c r="H165" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4997,28 +5015,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="12">
+      <c r="B167" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="12">
+      <c r="C167" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="12">
+      <c r="D167" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="12">
+      <c r="E167" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="12">
+      <c r="F167" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="12">
+      <c r="G167" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="12">
+      <c r="H167" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="12">
+      <c r="I167" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5135,10 +5153,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="12" t="s">
+      <c r="J171" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="12" t="s">
+      <c r="K171" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
